--- a/xlsx/test.xlsx
+++ b/xlsx/test.xlsx
@@ -1,44 +1,331 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DC7BFF-E22C-42F3-AC62-A6E7D8180158}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Python\BUP_bot\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081C89B9-84B3-4F5A-886E-209E66E81631}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showSheetTabs="0" xWindow="32760" yWindow="32760" windowWidth="18780" windowHeight="10920" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t xml:space="preserve">convert to PDF example </t>
-  </si>
-  <si>
-    <t>asdasd</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+  <si>
+    <t>Поставщик:</t>
+  </si>
+  <si>
+    <t>Грузоотправитель:</t>
+  </si>
+  <si>
+    <t>он же</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Условия </t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>К-во</t>
+  </si>
+  <si>
+    <t>Ед.изм.</t>
+  </si>
+  <si>
+    <t>Цена,
+Без НДС</t>
+  </si>
+  <si>
+    <t>Стои-
+мость,
+без НДС</t>
+  </si>
+  <si>
+    <t>Ставка
+ НДС, %</t>
+  </si>
+  <si>
+    <t>Сумма
+ НДС</t>
+  </si>
+  <si>
+    <t>Всего
+ с НДС</t>
+  </si>
+  <si>
+    <t>шт.</t>
+  </si>
+  <si>
+    <t>Итого на сумму (включая НДС):</t>
+  </si>
+  <si>
+    <t>в том числе:</t>
+  </si>
+  <si>
+    <t>НДС:</t>
+  </si>
+  <si>
+    <t>Итого к оплате:</t>
+  </si>
+  <si>
+    <t>в том числе НДС:</t>
+  </si>
+  <si>
+    <t>При получении товара по данному счету необходимо иметь:</t>
+  </si>
+  <si>
+    <t>• Заверенный протокол согласования свободной отпускной цены.
+• Оригинал настоящего счета, либо его копия (не факсовая).
+• Заполненную доверенность предприятия плательщика.</t>
+  </si>
+  <si>
+    <t>• Документ удостоверяющий личность.
+• Полный юридический адрес предприятия плательщика.</t>
+  </si>
+  <si>
+    <t>Покупатель:</t>
+  </si>
+  <si>
+    <t>Подпись</t>
+  </si>
+  <si>
+    <t>М.П.</t>
+  </si>
+  <si>
+    <t>ОДО "Белукрпром" - Резидент РБ, УНН: 101202952, ОКПО: 374367732</t>
+  </si>
+  <si>
+    <t>Данная счет-фактура является протоколом согласования договорной цены.</t>
+  </si>
+  <si>
+    <t>р/с: BY03PJCB30120075881000000933 в ОАО "Приорбанк" ЦБУ 100 г.Минск, ул.Радиальная, 38а, код банка PJCB BY2X.</t>
+  </si>
+  <si>
+    <t>1. Счет-фактура действительна в течении 10-ти банковских дней, включая день выписки</t>
+  </si>
+  <si>
+    <t>5. Оборудование (материалы) по настоящей счет-фактуре приобретается Покупателем (Заказчиком) для собственных нужд.</t>
+  </si>
+  <si>
+    <t>Директор</t>
+  </si>
+  <si>
+    <t>Н.В.Мазаев</t>
+  </si>
+  <si>
+    <t>375-29-648-17-79</t>
+  </si>
+  <si>
+    <t>п.1-п.6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ОДО "Белукрпром", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>220114, г.Минск, ул.Макаенка, 12-102. тел. 267-02-86 факс 337-29-67, E-mail: 1438206@mail.ru</t>
+    </r>
+  </si>
+  <si>
+    <t>уп.</t>
+  </si>
+  <si>
+    <t>Карта доступа Em-Marin белая с вырезом</t>
+  </si>
+  <si>
+    <t>Пауч для ламинирования 80 мкм, 75х52 мм, уп. 100 шт.</t>
+  </si>
+  <si>
+    <t>(0176) 77-19-72   Приемная директора</t>
+  </si>
+  <si>
+    <t>Сто девяносто два  рубля 00 копеек.</t>
+  </si>
+  <si>
+    <t>Тридцать два рубля 00 копеек.</t>
+  </si>
+  <si>
+    <t>2. Предоплата, в размере 100% стоимости товара, производится Покупателем на счёт Поставщика в течение 3-х банковских дней по факту поставки.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Поставка оборудования (материалов) производится на </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>склад Покупателя.</t>
+    </r>
+  </si>
+  <si>
+    <t>7. Стороны признают юридическую силу протокола, подписанного и переданного средствами факсимильной связи</t>
+  </si>
+  <si>
+    <t>6. Гарантия 12 месяцев со дня поставки.</t>
+  </si>
+  <si>
+    <t>Счет-фактура №</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ОАО "Гродненская табачная фабрика "Неман"
+</t>
+  </si>
+  <si>
+    <t>3. Срок поставки: не позднее 5-и рабочих дней с момента подписания счет-фактуры - протокола согласования договорной цены. (в наличии).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0&quot;%&quot;"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,7 +336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -57,18 +344,386 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="68">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00C0DCC0"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="00FFFBF0"/>
+      <rgbColor rgb="00A0A0A4"/>
+      <rgbColor rgb="00313900"/>
+      <rgbColor rgb="00D9853E"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -84,23 +739,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>49411</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2">
+        <xdr:cNvPr id="1025" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72FB9E8A-FD57-449A-81DE-4EA74195931A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F34368-8499-4063-BE87-2A3FCE19A8C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -109,25 +764,49 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="295275" y="904875"/>
-          <a:ext cx="2543175" cy="1430536"/>
+          <a:off x="1209675" y="7753350"/>
+          <a:ext cx="1790700" cy="1552575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -136,9 +815,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -146,44 +825,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -211,14 +890,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -246,9 +942,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -257,168 +970,746 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G3"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C8" sqref="C8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.5" style="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67">
+        <v>15</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="64">
+        <v>43969</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+    </row>
+    <row r="5" spans="1:10" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+    </row>
+    <row r="6" spans="1:10" s="24" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+    </row>
+    <row r="7" spans="1:10" s="24" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
         <v>1</v>
       </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="1:10" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+    </row>
+    <row r="10" spans="1:10" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+    </row>
+    <row r="11" spans="1:10" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="65"/>
+      <c r="C11" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+    </row>
+    <row r="12" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:10" s="7" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="7" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="36">
+        <v>1</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="36">
+        <v>200</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="38">
+        <f>F14*D14</f>
+        <v>120</v>
+      </c>
+      <c r="H14" s="39">
+        <v>20</v>
+      </c>
+      <c r="I14" s="38">
+        <f>G14*0.2</f>
+        <v>24</v>
+      </c>
+      <c r="J14" s="38">
+        <f>I14+G14</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="7" customFormat="1" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+    </row>
+    <row r="16" spans="1:10" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="36">
+        <v>2</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="61"/>
+      <c r="D16" s="36">
+        <v>2</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="38">
+        <v>20</v>
+      </c>
+      <c r="G16" s="38">
+        <f>F16*D16</f>
+        <v>40</v>
+      </c>
+      <c r="H16" s="39">
+        <v>20</v>
+      </c>
+      <c r="I16" s="38">
+        <f>G16*0.2</f>
+        <v>8</v>
+      </c>
+      <c r="J16" s="38">
+        <f>I16+G16</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+    </row>
+    <row r="18" spans="1:11" s="8" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="28">
+        <f>SUM(J14:J17)</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="0.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="30">
+        <f>J18/6</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+    </row>
+    <row r="23" spans="1:11" ht="0.6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:11" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+    </row>
+    <row r="25" spans="1:11" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="31"/>
+    </row>
+    <row r="26" spans="1:11" s="24" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="31"/>
+    </row>
+    <row r="27" spans="1:11" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+    </row>
+    <row r="28" spans="1:11" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="31"/>
+    </row>
+    <row r="29" spans="1:11" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="25"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+    </row>
+    <row r="30" spans="1:11" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+    </row>
+    <row r="31" spans="1:11" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+    </row>
+    <row r="32" spans="1:11" ht="34.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="23"/>
+      <c r="B32" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="51"/>
+    </row>
+    <row r="33" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+    </row>
+    <row r="34" spans="2:10" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="46"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+    </row>
+    <row r="35" spans="2:10" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
+      <c r="J35" s="40"/>
+    </row>
+    <row r="36" spans="2:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:10" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="4"/>
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="G39" s="14"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="43" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B43" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="25">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C5:J6"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="B33:J33"/>
+  </mergeCells>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/xlsx/test.xlsx
+++ b/xlsx/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Python\BUP_bot\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081C89B9-84B3-4F5A-886E-209E66E81631}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BC9B70-4C49-4A9C-A0C2-BA90BEDEACCB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="32760" yWindow="32760" windowWidth="18780" windowHeight="10920" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,15 +162,6 @@
     <t>Пауч для ламинирования 80 мкм, 75х52 мм, уп. 100 шт.</t>
   </si>
   <si>
-    <t>(0176) 77-19-72   Приемная директора</t>
-  </si>
-  <si>
-    <t>Сто девяносто два  рубля 00 копеек.</t>
-  </si>
-  <si>
-    <t>Тридцать два рубля 00 копеек.</t>
-  </si>
-  <si>
     <t>2. Предоплата, в размере 100% стоимости товара, производится Покупателем на счёт Поставщика в течение 3-х банковских дней по факту поставки.</t>
   </si>
   <si>
@@ -198,11 +189,19 @@
     <t>Счет-фактура №</t>
   </si>
   <si>
-    <t xml:space="preserve"> ОАО "Гродненская табачная фабрика "Неман"
-</t>
-  </si>
-  <si>
     <t>3. Срок поставки: не позднее 5-и рабочих дней с момента подписания счет-фактуры - протокола согласования договорной цены. (в наличии).</t>
+  </si>
+  <si>
+    <t>ОАО "пример"</t>
+  </si>
+  <si>
+    <t>бла-бла-бла</t>
+  </si>
+  <si>
+    <t>сорок рублей ноль копеек</t>
+  </si>
+  <si>
+    <t>шесть рублей ноль копеек</t>
   </si>
 </sst>
 </file>
@@ -578,9 +577,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -607,48 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,74 +1157,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="18"/>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="67">
-        <v>15</v>
-      </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="A2" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50">
+        <v>20</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64">
-        <v>43969</v>
-      </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
+      <c r="A4" s="46">
+        <v>43970</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="25"/>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" s="24" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" s="24" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
@@ -1239,70 +1238,70 @@
     <row r="8" spans="1:10" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="25"/>
-      <c r="C9" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
+      <c r="C9" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
     </row>
     <row r="10" spans="1:10" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
+      <c r="C10" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:10" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="47"/>
+      <c r="C11" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="20" t="s">
         <v>6</v>
       </c>
@@ -1329,33 +1328,33 @@
       <c r="A14" s="36">
         <v>1</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="61"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="36">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="38">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="G14" s="38">
         <f>F14*D14</f>
-        <v>120</v>
+        <v>10.5</v>
       </c>
       <c r="H14" s="39">
         <v>20</v>
       </c>
       <c r="I14" s="38">
         <f>G14*0.2</f>
-        <v>24</v>
+        <v>2.1</v>
       </c>
       <c r="J14" s="38">
         <f>I14+G14</f>
-        <v>144</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1374,33 +1373,33 @@
       <c r="A16" s="36">
         <v>2</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="61"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="36" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="38">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G16" s="38">
         <f>F16*D16</f>
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H16" s="39">
         <v>20</v>
       </c>
       <c r="I16" s="38">
         <f>G16*0.2</f>
-        <v>8</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="J16" s="38">
         <f>I16+G16</f>
-        <v>48</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1421,7 +1420,7 @@
       </c>
       <c r="J18" s="28">
         <f>SUM(J14:J17)</f>
-        <v>192</v>
+        <v>40.200000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="0.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1439,38 +1438,38 @@
       </c>
       <c r="J20" s="30">
         <f>J18/6</f>
-        <v>32</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
+      <c r="C21" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
     </row>
     <row r="22" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
+      <c r="C22" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
     </row>
     <row r="23" spans="1:11" ht="0.6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:11" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1489,38 +1488,38 @@
       <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:11" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
+      <c r="A25" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
       <c r="K25" s="31"/>
     </row>
     <row r="26" spans="1:11" s="24" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
+      <c r="A26" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
       <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:11" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="31"/>
@@ -1534,23 +1533,23 @@
       <c r="K27" s="31"/>
     </row>
     <row r="28" spans="1:11" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
       <c r="K28" s="31"/>
     </row>
     <row r="29" spans="1:11" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="31"/>
@@ -1564,62 +1563,62 @@
       <c r="K29" s="31"/>
     </row>
     <row r="30" spans="1:11" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
+      <c r="A30" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
     </row>
     <row r="31" spans="1:11" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
     </row>
     <row r="32" spans="1:11" ht="34.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50" t="s">
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="51"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
     </row>
     <row r="34" spans="2:10" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
@@ -1628,10 +1627,10 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="46"/>
+      <c r="G34" s="60"/>
       <c r="H34" s="34"/>
       <c r="I34" s="34"/>
       <c r="J34" s="34"/>
@@ -1680,13 +1679,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="B33:J33"/>
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C22:J22"/>
     <mergeCell ref="C5:J6"/>
@@ -1696,15 +1697,13 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/xlsx/test.xlsx
+++ b/xlsx/test.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Python\BUP_bot\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BC9B70-4C49-4A9C-A0C2-BA90BEDEACCB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4A2F56-EC57-49F1-8508-99BAC058E006}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="32760" yWindow="32760" windowWidth="18780" windowHeight="10920" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -192,16 +192,16 @@
     <t>3. Срок поставки: не позднее 5-и рабочих дней с момента подписания счет-фактуры - протокола согласования договорной цены. (в наличии).</t>
   </si>
   <si>
-    <t>ОАО "пример"</t>
-  </si>
-  <si>
-    <t>бла-бла-бла</t>
-  </si>
-  <si>
-    <t>сорок рублей ноль копеек</t>
-  </si>
-  <si>
-    <t>шесть рублей ноль копеек</t>
+    <t>тест</t>
+  </si>
+  <si>
+    <t>игнат лох</t>
+  </si>
+  <si>
+    <t>Девятнадцать рублей пятьдесят копеек.</t>
+  </si>
+  <si>
+    <t>Три рубля двадцать пять копеек.</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1179,7 @@
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
       <c r="G2" s="50">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="C16" s="58"/>
       <c r="D16" s="36">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E16" s="36" t="s">
         <v>35</v>
@@ -1388,18 +1388,18 @@
       </c>
       <c r="G16" s="38">
         <f>F16*D16</f>
-        <v>23</v>
+        <v>5.75</v>
       </c>
       <c r="H16" s="39">
         <v>20</v>
       </c>
       <c r="I16" s="38">
         <f>G16*0.2</f>
-        <v>4.6000000000000005</v>
+        <v>1.1500000000000001</v>
       </c>
       <c r="J16" s="38">
         <f>I16+G16</f>
-        <v>27.6</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="J18" s="28">
         <f>SUM(J14:J17)</f>
-        <v>40.200000000000003</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="0.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="J20" s="30">
         <f>J18/6</f>
-        <v>6.7</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">

--- a/xlsx/test.xlsx
+++ b/xlsx/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Python\BUP_bot\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4A2F56-EC57-49F1-8508-99BAC058E006}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB6C461-8B0A-4E0C-8F7F-F1E0D612CE7C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="32760" yWindow="32760" windowWidth="18780" windowHeight="10920" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,16 +192,16 @@
     <t>3. Срок поставки: не позднее 5-и рабочих дней с момента подписания счет-фактуры - протокола согласования договорной цены. (в наличии).</t>
   </si>
   <si>
-    <t>тест</t>
-  </si>
-  <si>
-    <t>игнат лох</t>
-  </si>
-  <si>
-    <t>Девятнадцать рублей пятьдесят копеек.</t>
-  </si>
-  <si>
-    <t>Три рубля двадцать пять копеек.</t>
+    <t>ИП Лукашонок</t>
+  </si>
+  <si>
+    <t>г. Минск, ул. Калиновского 14,61</t>
+  </si>
+  <si>
+    <t>Семьсот сорок семь рублей шестьдесят копеек.</t>
+  </si>
+  <si>
+    <t>Сто двадцать четыре рубля шестьдесят копеек.</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1179,7 @@
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
       <c r="G2" s="50">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
@@ -1333,28 +1333,28 @@
       </c>
       <c r="C14" s="58"/>
       <c r="D14" s="36">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="38">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="G14" s="38">
         <f>F14*D14</f>
-        <v>10.5</v>
+        <v>600</v>
       </c>
       <c r="H14" s="39">
         <v>20</v>
       </c>
       <c r="I14" s="38">
         <f>G14*0.2</f>
-        <v>2.1</v>
+        <v>120</v>
       </c>
       <c r="J14" s="38">
         <f>I14+G14</f>
-        <v>12.6</v>
+        <v>720</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="7" customFormat="1" ht="66.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="C16" s="58"/>
       <c r="D16" s="36">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E16" s="36" t="s">
         <v>35</v>
@@ -1388,18 +1388,18 @@
       </c>
       <c r="G16" s="38">
         <f>F16*D16</f>
-        <v>5.75</v>
+        <v>23</v>
       </c>
       <c r="H16" s="39">
         <v>20</v>
       </c>
       <c r="I16" s="38">
         <f>G16*0.2</f>
-        <v>1.1500000000000001</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="J16" s="38">
         <f>I16+G16</f>
-        <v>6.9</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="34.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="J18" s="28">
         <f>SUM(J14:J17)</f>
-        <v>19.5</v>
+        <v>747.6</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="0.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="J20" s="30">
         <f>J18/6</f>
-        <v>3.25</v>
+        <v>124.60000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">

--- a/xlsx/test.xlsx
+++ b/xlsx/test.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Python\BUP_bot\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB6C461-8B0A-4E0C-8F7F-F1E0D612CE7C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEADD29-1515-4FE1-89EA-ECF6D4B8C126}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showSheetTabs="0" xWindow="32760" yWindow="32760" windowWidth="18780" windowHeight="10920" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Поставщик:</t>
   </si>
@@ -190,12 +190,6 @@
   </si>
   <si>
     <t>3. Срок поставки: не позднее 5-и рабочих дней с момента подписания счет-фактуры - протокола согласования договорной цены. (в наличии).</t>
-  </si>
-  <si>
-    <t>ИП Лукашонок</t>
-  </si>
-  <si>
-    <t>г. Минск, ул. Калиновского 14,61</t>
   </si>
   <si>
     <t>Семьсот сорок семь рублей шестьдесят копеек.</t>
@@ -577,6 +571,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -589,65 +637,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1157,74 +1151,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="18"/>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50">
-        <v>30</v>
-      </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67">
+        <v>31</v>
+      </c>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46">
+      <c r="A4" s="64">
         <v>43970</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
     </row>
     <row r="5" spans="1:10" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="25"/>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
     </row>
     <row r="6" spans="1:10" s="24" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
     </row>
     <row r="7" spans="1:10" s="24" customFormat="1" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
@@ -1238,70 +1232,70 @@
     <row r="8" spans="1:10" s="24" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:10" s="24" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="25"/>
-      <c r="C9" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
+      <c r="C9" s="57">
+        <v>123</v>
+      </c>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:10" s="24" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
+      <c r="C10" s="44">
+        <v>123</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:10" s="24" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="65"/>
+      <c r="C11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:10" s="7" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="20" t="s">
         <v>6</v>
       </c>
@@ -1328,10 +1322,10 @@
       <c r="A14" s="36">
         <v>1</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="58"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="36">
         <v>1000</v>
       </c>
@@ -1373,10 +1367,10 @@
       <c r="A16" s="36">
         <v>2</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="58"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="36">
         <v>1</v>
       </c>
@@ -1445,31 +1439,31 @@
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
+      <c r="C21" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
     </row>
     <row r="22" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
+      <c r="C22" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:11" ht="0.6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:11" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1488,33 +1482,33 @@
       <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:11" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
       <c r="K25" s="31"/>
     </row>
     <row r="26" spans="1:11" s="24" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
       <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:11" s="24" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1533,18 +1527,18 @@
       <c r="K27" s="31"/>
     </row>
     <row r="28" spans="1:11" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
       <c r="K28" s="31"/>
     </row>
     <row r="29" spans="1:11" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1563,62 +1557,62 @@
       <c r="K29" s="31"/>
     </row>
     <row r="30" spans="1:11" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
     </row>
     <row r="31" spans="1:11" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
     </row>
     <row r="32" spans="1:11" ht="34.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23"/>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64" t="s">
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="64"/>
-      <c r="I32" s="64"/>
-      <c r="J32" s="65"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="51"/>
     </row>
     <row r="33" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
     </row>
     <row r="34" spans="2:10" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="35" t="s">
@@ -1627,10 +1621,10 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="60" t="s">
+      <c r="F34" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="60"/>
+      <c r="G34" s="46"/>
       <c r="H34" s="34"/>
       <c r="I34" s="34"/>
       <c r="J34" s="34"/>
@@ -1679,6 +1673,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C5:J6"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="A25:J25"/>
     <mergeCell ref="A26:J26"/>
     <mergeCell ref="F34:G34"/>
@@ -1688,22 +1698,6 @@
     <mergeCell ref="G32:J32"/>
     <mergeCell ref="A30:K30"/>
     <mergeCell ref="B33:J33"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C5:J6"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
